--- a/data/trans_orig/IP12_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP12_2023-Estudios-trans_orig.xlsx
@@ -902,12 +902,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -923,12 +923,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -944,12 +944,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>15,64%</t>
         </is>
       </c>
     </row>
@@ -973,12 +973,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80,08%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -994,12 +994,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>84,87%</t>
+          <t>85,29%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>85,55%</t>
+          <t>84,36%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>94,57%</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1190,12 +1190,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>93,88%</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -1407,12 +1407,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>88,34%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1428,12 +1428,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>94,64%</t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,82%</t>
         </is>
       </c>
     </row>
@@ -1624,12 +1624,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>90,12%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1666,12 +1666,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>93,62%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IP12_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP12_2023-Estudios-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,13 +537,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según si limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
+          <t>Menores según si en las últimas 2 semanas limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -552,7 +552,7 @@
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="I1" s="3" t="n"/>
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -679,64 +679,66 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>3560</v>
+      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>6831</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>10391</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>15,04%</t>
         </is>
       </c>
     </row>
@@ -748,64 +750,66 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>51118</v>
+      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1171</v>
+        <v>55173</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>79,7%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1171</v>
+        <v>106291</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>94,77%</t>
         </is>
       </c>
     </row>
@@ -817,29 +821,31 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="inlineStr"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>54678</v>
+      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -857,10 +863,10 @@
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -881,7 +887,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -890,66 +896,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6462</v>
+        <v>32015</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>3598</v>
+        <v>38702</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>10060</v>
+        <v>70717</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>8,72%</t>
         </is>
       </c>
     </row>
@@ -961,66 +967,66 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>74</v>
+        <v>590</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>52295</v>
+        <v>427679</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80,95%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>63</v>
+        <v>601</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>47604</v>
+        <v>477917</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>85,29%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>137</v>
+        <v>1191</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>99899</v>
+        <v>905596</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>94,22%</t>
         </is>
       </c>
     </row>
@@ -1032,10 +1038,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>58757</v>
+        <v>459694</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1053,10 +1059,10 @@
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1074,10 +1080,10 @@
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>152</v>
+        <v>1298</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>109959</v>
+        <v>976313</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1098,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1107,66 +1113,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>37658</v>
+        <v>11697</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>32146</v>
+        <v>13570</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>69805</v>
+        <v>25268</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>10,64%</t>
         </is>
       </c>
     </row>
@@ -1178,66 +1184,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>601</v>
+        <v>211</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>454706</v>
+        <v>137854</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>590</v>
+        <v>222</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>416990</v>
+        <v>169779</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>1191</v>
+        <v>433</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>871695</v>
+        <v>307632</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>89,36%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>94,6%</t>
         </is>
       </c>
     </row>
@@ -1249,10 +1255,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1270,10 +1276,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>642</v>
+        <v>238</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>449136</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1291,10 +1297,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>1298</v>
+        <v>468</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>941500</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1315,7 +1321,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1324,66 +1330,66 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>12714</v>
+        <v>47272</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>11850</v>
+        <v>59103</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>24564</v>
+        <v>106375</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>8,85%</t>
         </is>
       </c>
     </row>
@@ -1395,66 +1401,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>222</v>
+        <v>864</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>161869</v>
+        <v>616651</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>92,72%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>91,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>94,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>211</v>
+        <v>897</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>139520</v>
+        <v>702869</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>433</v>
+        <v>1761</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>301388</v>
+        <v>1319520</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>93,75%</t>
         </is>
       </c>
     </row>
@@ -1466,10 +1472,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>174583</v>
+        <v>663923</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1487,10 +1493,10 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1508,10 +1514,10 @@
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>468</v>
+        <v>1918</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>325952</v>
+        <v>1425895</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1530,234 +1536,16 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>56834</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>47594</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>9,14%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>104429</v>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>7,58%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>6,38%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>8,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>897</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>668870</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>92,17%</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>90,12%</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>93,79%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>865</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>605285</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>92,71%</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>90,86%</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>94,21%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>1762</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>1274154</v>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>92,42%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>91,18%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>93,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>977</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>942</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>652879</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>1919</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>1378583</v>
-      </c>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
